--- a/artfynd/A 52951-2022.xlsx
+++ b/artfynd/A 52951-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104729333</v>
+        <v>104765665</v>
       </c>
       <c r="B3" t="n">
-        <v>103346</v>
+        <v>89170</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221423</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>638749.7602009142</v>
+        <v>638582.5782925152</v>
       </c>
       <c r="R3" t="n">
-        <v>6714172.200221093</v>
+        <v>6714427.311137903</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104729212</v>
+        <v>104729333</v>
       </c>
       <c r="B4" t="n">
-        <v>108194</v>
+        <v>103346</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219711</v>
+        <v>221423</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>638724.763035205</v>
+        <v>638749.7602009142</v>
       </c>
       <c r="R4" t="n">
-        <v>6714090.951460316</v>
+        <v>6714172.200221093</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>noterad, fin örtskog</t>
+          <t>noterad</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104729332</v>
+        <v>104729212</v>
       </c>
       <c r="B5" t="n">
-        <v>103346</v>
+        <v>108194</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221423</v>
+        <v>219711</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>638722.1097858821</v>
+        <v>638724.763035205</v>
       </c>
       <c r="R5" t="n">
-        <v>6714082.968365866</v>
+        <v>6714090.951460316</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>noterad, fin örtskog</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104765665</v>
+        <v>104729332</v>
       </c>
       <c r="B6" t="n">
-        <v>89170</v>
+        <v>103346</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>221423</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>638582.5782925152</v>
+        <v>638722.1097858821</v>
       </c>
       <c r="R6" t="n">
-        <v>6714427.311137903</v>
+        <v>6714082.968365866</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>noterad</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 52951-2022.xlsx
+++ b/artfynd/A 52951-2022.xlsx
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104765665</v>
+        <v>104729333</v>
       </c>
       <c r="B3" t="n">
-        <v>89170</v>
+        <v>103346</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>221423</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>638582.5782925152</v>
+        <v>638749.7602009142</v>
       </c>
       <c r="R3" t="n">
-        <v>6714427.311137903</v>
+        <v>6714172.200221093</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104729333</v>
+        <v>104729212</v>
       </c>
       <c r="B4" t="n">
-        <v>103346</v>
+        <v>108194</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221423</v>
+        <v>219711</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>638749.7602009142</v>
+        <v>638724.763035205</v>
       </c>
       <c r="R4" t="n">
-        <v>6714172.200221093</v>
+        <v>6714090.951460316</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>noterad</t>
+          <t>noterad, fin örtskog</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1031,10 +1031,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104729212</v>
+        <v>104729332</v>
       </c>
       <c r="B5" t="n">
-        <v>108194</v>
+        <v>103346</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,21 +1047,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219711</v>
+        <v>221423</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Myskmadra</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Galium odoratum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Scop.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>638724.763035205</v>
+        <v>638722.1097858821</v>
       </c>
       <c r="R5" t="n">
-        <v>6714090.951460316</v>
+        <v>6714082.968365866</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>noterad, fin örtskog</t>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104729332</v>
+        <v>104765665</v>
       </c>
       <c r="B6" t="n">
-        <v>103346</v>
+        <v>89170</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221423</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myskmadra</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Galium odoratum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Scop.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>638722.1097858821</v>
+        <v>638582.5782925152</v>
       </c>
       <c r="R6" t="n">
-        <v>6714082.968365866</v>
+        <v>6714427.311137903</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>rikligt</t>
+          <t>noterad</t>
         </is>
       </c>
       <c r="AD6" t="b">
